--- a/Inleveren herkansing/momentenevenwicht.xlsx
+++ b/Inleveren herkansing/momentenevenwicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FAAB52-38BA-4182-9943-421E719E66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{68FAAB52-38BA-4182-9943-421E719E66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE35D424-3D72-4640-99D7-A8AE7696729A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E410E5E5-92E0-438D-9580-3EE7177BC539}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>59.838999999999999</v>
       </c>
       <c r="B2" s="2">
@@ -476,7 +476,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>60.634</v>
       </c>
       <c r="B3" s="2">
@@ -491,37 +491,37 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>144.02503373793201</v>
+      <c r="A4" s="2">
+        <v>151.74073755099499</v>
       </c>
       <c r="B4" s="2">
-        <v>79166700</v>
+        <v>75046500</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>11401986638.420742</v>
+        <v>11387611260.620747</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3.4889999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>182702066.89172399</v>
+        <v>186822266.89172399</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>637447511.38522494</v>
+        <v>651822889.18522501</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>133.80500000000001</v>
       </c>
       <c r="B6" s="2">
@@ -550,7 +550,7 @@
       </c>
       <c r="C8">
         <f>SUM(C2:C6)</f>
-        <v>0</v>
+        <v>1.049041748046875E-5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -562,12 +562,12 @@
       </c>
       <c r="D9">
         <f>C8/C10*100</f>
-        <v>0</v>
+        <v>2.2956026385081581E-13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10">
-        <v>4355214432.5496798</v>
+        <v>4569788039.31248</v>
       </c>
     </row>
   </sheetData>
